--- a/ofc/estimates/Indrayani mandir 1200000/merged final.xlsx
+++ b/ofc/estimates/Indrayani mandir 1200000/merged final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="final valuation merged" sheetId="16" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_103">[1]Abstract!$B$16</definedName>
@@ -29,17 +28,18 @@
     <definedName name="description_261">[2]Abstract!$B$33</definedName>
     <definedName name="description_262">[1]Abstract!$B$34</definedName>
     <definedName name="description_3">[1]Abstract!$B$169</definedName>
-    <definedName name="description_310">[4]Abstract!$B$60</definedName>
-    <definedName name="description_312">[5]Abstract!$B$61</definedName>
+    <definedName name="description_310">[3]Abstract!$B$60</definedName>
+    <definedName name="description_312">[4]Abstract!$B$61</definedName>
     <definedName name="description_5">[1]Abstract!$B$171</definedName>
-    <definedName name="description_6">[4]Abstract!$B$172</definedName>
+    <definedName name="description_6">[3]Abstract!$B$172</definedName>
     <definedName name="description_759">[1]Abstract!$B$278</definedName>
-    <definedName name="description_781">[6]Abstract!$B$299</definedName>
+    <definedName name="description_781">[5]Abstract!$B$299</definedName>
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">V!$A$1:$K$156</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$74</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="106">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -373,9 +373,6 @@
     <t xml:space="preserve">Maintanince </t>
   </si>
   <si>
-    <t>22 gauge Brass plate making and fixing on roof</t>
-  </si>
-  <si>
     <t>Carved salwood Lattice (jali) of Carved Window highly carving including wood</t>
   </si>
   <si>
@@ -528,15 +525,21 @@
   <si>
     <t xml:space="preserve">F.Y:2081/2082            </t>
   </si>
+  <si>
+    <t>Traditional Fya Brick work in (1:1:2) lime,surkhi, sand mortar</t>
+  </si>
+  <si>
+    <t>20 gauge Brass plate making and fixing on roof</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -788,7 +791,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -798,7 +801,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,7 +811,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -820,7 +823,7 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -847,7 +850,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -877,7 +880,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -888,7 +891,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -907,7 +910,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -915,7 +918,7 @@
     <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,16 +964,33 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -981,8 +1001,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -993,7 +1016,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1004,19 +1040,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1031,33 +1054,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1104,8 +1107,8 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="16">
           <cell r="B16" t="str">
             <v>Clearing and Grubbing Road Land ., Clearing and grubbing road land including uprooting rank vegetation, grass, bushes, shrubs, saplings and trees girth up to 300 mm, removal of stumps of trees cut earlier and disposal of unserviceable materials and stacking of serviceable Material to be used or auctioned, up to a lead of 30 meters including removal and disposal of top organic soil not exceeding 150 mm in thickness., By Mechanical Means, In area of light jungle (less than 15 number per 100 sqm )</v>
@@ -1147,25 +1150,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1198,70 +1201,39 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="33">
           <cell r="B33" t="str">
             <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Manual Means ., Roadway Excavation in all types of soil as per drawing and technical specification, including removal of stumps and other deleterious matter, with all lifts and lead as per Drawing and instruction of the Engineer.</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Estimate"/>
-      <sheetName val="WCR"/>
-      <sheetName val="Valuation"/>
-      <sheetName val="Measure"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Project:- कालिका मन्दिरमा भएको सार्वजनिक भवन मर्मत सम्भार</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="14">
-          <cell r="G14">
-            <v>8.5378124999999994</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1325,7 +1297,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1384,7 +1356,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1732,121 +1704,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O170"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H153" sqref="H153"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-    </row>
-    <row r="4" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="83" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="H5" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1878,15 +1850,15 @@
         <v>16</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>1</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="62"/>
@@ -1898,10 +1870,10 @@
       <c r="J8" s="56"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="52">
         <v>1</v>
@@ -1923,10 +1895,10 @@
       <c r="J9" s="56"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="52">
         <v>1</v>
@@ -1948,10 +1920,10 @@
       <c r="J10" s="56"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="52">
         <v>4</v>
@@ -1974,7 +1946,7 @@
       <c r="J11" s="56"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="51"/>
       <c r="C12" s="52">
@@ -1997,7 +1969,7 @@
       <c r="J12" s="56"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="51"/>
       <c r="C13" s="52">
@@ -2020,7 +1992,7 @@
       <c r="J13" s="56"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="51"/>
       <c r="C14" s="52">
@@ -2043,10 +2015,10 @@
       <c r="J14" s="56"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="52">
         <v>2</v>
@@ -2068,7 +2040,7 @@
       <c r="J15" s="56"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="51"/>
       <c r="C16" s="52">
@@ -2091,7 +2063,7 @@
       <c r="J16" s="56"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="51"/>
       <c r="C17" s="52">
@@ -2115,10 +2087,10 @@
       <c r="J17" s="56"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="52">
         <v>2</v>
@@ -2139,10 +2111,10 @@
       <c r="J18" s="56"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="52">
         <v>1</v>
@@ -2165,7 +2137,7 @@
       <c r="J19" s="56"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="51"/>
       <c r="C20" s="52">
@@ -2188,7 +2160,7 @@
       <c r="J20" s="56"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="57" t="s">
         <v>19</v>
@@ -2214,10 +2186,10 @@
       </c>
       <c r="K21" s="26"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="49"/>
@@ -2232,7 +2204,7 @@
       </c>
       <c r="K22" s="26"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="57"/>
       <c r="C23" s="48"/>
@@ -2245,12 +2217,12 @@
       <c r="J23" s="60"/>
       <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>2</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="49"/>
@@ -2262,7 +2234,7 @@
       <c r="J24" s="50"/>
       <c r="K24" s="26"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="51" t="s">
         <v>42</v>
@@ -2286,7 +2258,7 @@
       <c r="J25" s="56"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="51"/>
       <c r="C26" s="52">
@@ -2308,7 +2280,7 @@
       <c r="J26" s="56"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="57" t="s">
         <v>19</v>
@@ -2334,7 +2306,7 @@
       </c>
       <c r="K27" s="26"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="19"/>
       <c r="C28" s="22"/>
@@ -2347,12 +2319,12 @@
       <c r="J28" s="30"/>
       <c r="K28" s="26"/>
     </row>
-    <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>3</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="48">
         <v>1</v>
@@ -2371,7 +2343,7 @@
       <c r="J29" s="50"/>
       <c r="K29" s="26"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="57" t="s">
         <v>19</v>
@@ -2397,10 +2369,10 @@
       </c>
       <c r="K30" s="26"/>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="48"/>
       <c r="D31" s="49"/>
@@ -2415,7 +2387,7 @@
       </c>
       <c r="K31" s="26"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="57"/>
       <c r="C32" s="48"/>
@@ -2428,12 +2400,12 @@
       <c r="J32" s="50"/>
       <c r="K32" s="26"/>
     </row>
-    <row r="33" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>4</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="48">
         <v>2</v>
@@ -2452,7 +2424,7 @@
       <c r="J33" s="50"/>
       <c r="K33" s="26"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="57" t="s">
         <v>19</v>
@@ -2478,10 +2450,10 @@
       </c>
       <c r="K34" s="26"/>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="48"/>
       <c r="D35" s="49"/>
@@ -2496,7 +2468,7 @@
       </c>
       <c r="K35" s="26"/>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="19"/>
       <c r="C36" s="22"/>
@@ -2509,7 +2481,7 @@
       <c r="J36" s="30"/>
       <c r="K36" s="26"/>
     </row>
-    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>5</v>
       </c>
@@ -2526,7 +2498,7 @@
       <c r="J37" s="50"/>
       <c r="K37" s="26"/>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="51" t="s">
         <v>42</v>
@@ -2552,7 +2524,7 @@
       <c r="J38" s="56"/>
       <c r="K38" s="13"/>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="57" t="s">
         <v>19</v>
@@ -2578,10 +2550,10 @@
       </c>
       <c r="K39" s="26"/>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="48"/>
       <c r="D40" s="49"/>
@@ -2596,7 +2568,7 @@
       </c>
       <c r="K40" s="26"/>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="19"/>
       <c r="C41" s="22"/>
@@ -2609,12 +2581,12 @@
       <c r="J41" s="25"/>
       <c r="K41" s="26"/>
     </row>
-    <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>6</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="48"/>
       <c r="D42" s="49"/>
@@ -2626,7 +2598,7 @@
       <c r="J42" s="50"/>
       <c r="K42" s="26"/>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="51" t="str">
         <f>B11</f>
@@ -2654,7 +2626,7 @@
       <c r="J43" s="56"/>
       <c r="K43" s="13"/>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="51"/>
       <c r="C44" s="52">
@@ -2679,7 +2651,7 @@
       <c r="J44" s="56"/>
       <c r="K44" s="13"/>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="51"/>
       <c r="C45" s="52">
@@ -2706,7 +2678,7 @@
       <c r="J45" s="56"/>
       <c r="K45" s="13"/>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="51"/>
       <c r="C46" s="52">
@@ -2733,7 +2705,7 @@
       <c r="J46" s="56"/>
       <c r="K46" s="13"/>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="51" t="str">
         <f>B18</f>
@@ -2763,10 +2735,10 @@
       <c r="J47" s="56"/>
       <c r="K47" s="13"/>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="52">
         <v>2</v>
@@ -2792,7 +2764,7 @@
       <c r="J48" s="56"/>
       <c r="K48" s="13"/>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="51"/>
       <c r="C49" s="52">
@@ -2819,7 +2791,7 @@
       <c r="J49" s="56"/>
       <c r="K49" s="13"/>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="57" t="s">
         <v>19</v>
@@ -2845,10 +2817,10 @@
       </c>
       <c r="K50" s="26"/>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="B51" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="48"/>
       <c r="D51" s="49"/>
@@ -2863,7 +2835,7 @@
       </c>
       <c r="K51" s="26"/>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="19"/>
       <c r="C52" s="22"/>
@@ -2876,12 +2848,12 @@
       <c r="J52" s="25"/>
       <c r="K52" s="26"/>
     </row>
-    <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>7</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="48"/>
       <c r="D53" s="49"/>
@@ -2893,7 +2865,7 @@
       <c r="J53" s="60"/>
       <c r="K53" s="26"/>
     </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="57"/>
       <c r="C54" s="48">
@@ -2917,7 +2889,7 @@
       <c r="J54" s="60"/>
       <c r="K54" s="26"/>
     </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="57"/>
       <c r="C55" s="48">
@@ -2941,7 +2913,7 @@
       <c r="J55" s="60"/>
       <c r="K55" s="26"/>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="57" t="s">
         <v>19</v>
@@ -2967,10 +2939,10 @@
       </c>
       <c r="K56" s="26"/>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" s="48"/>
       <c r="D57" s="49"/>
@@ -2985,7 +2957,7 @@
       </c>
       <c r="K57" s="26"/>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="19"/>
       <c r="C58" s="22"/>
@@ -2998,12 +2970,12 @@
       <c r="J58" s="25"/>
       <c r="K58" s="26"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>8</v>
       </c>
       <c r="B59" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="48"/>
       <c r="D59" s="49"/>
@@ -3015,7 +2987,7 @@
       <c r="J59" s="50"/>
       <c r="K59" s="26"/>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="65" t="str">
         <f>B48</f>
@@ -3043,7 +3015,7 @@
       <c r="J60" s="50"/>
       <c r="K60" s="26"/>
     </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="57"/>
       <c r="C61" s="48">
@@ -3068,7 +3040,7 @@
       <c r="J61" s="50"/>
       <c r="K61" s="26"/>
     </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="57" t="s">
         <v>19</v>
@@ -3094,7 +3066,7 @@
       </c>
       <c r="K62" s="26"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="20"/>
       <c r="C63" s="22"/>
@@ -3107,12 +3079,12 @@
       <c r="J63" s="30"/>
       <c r="K63" s="26"/>
     </row>
-    <row r="64" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>9</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="48"/>
       <c r="D64" s="49"/>
@@ -3124,10 +3096,10 @@
       <c r="J64" s="50"/>
       <c r="K64" s="26"/>
     </row>
-    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="48">
         <v>1</v>
@@ -3148,10 +3120,10 @@
       <c r="J65" s="50"/>
       <c r="K65" s="26"/>
     </row>
-    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
       <c r="B66" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="48">
         <v>-2</v>
@@ -3172,10 +3144,10 @@
       <c r="J66" s="50"/>
       <c r="K66" s="26"/>
     </row>
-    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" s="48">
         <v>1</v>
@@ -3196,7 +3168,7 @@
       <c r="J67" s="50"/>
       <c r="K67" s="26"/>
     </row>
-    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="57" t="s">
         <v>19</v>
@@ -3225,7 +3197,7 @@
         <v>73689.555541760725</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
       <c r="B69" s="20"/>
       <c r="C69" s="22"/>
@@ -3238,12 +3210,12 @@
       <c r="J69" s="30"/>
       <c r="K69" s="26"/>
     </row>
-    <row r="70" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>10</v>
       </c>
       <c r="B70" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C70" s="48"/>
       <c r="D70" s="49"/>
@@ -3255,7 +3227,7 @@
       <c r="J70" s="50"/>
       <c r="K70" s="26"/>
     </row>
-    <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="B71" s="57" t="s">
         <v>39</v>
@@ -3285,7 +3257,7 @@
         <v>0.83000000000000007</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="B72" s="57" t="s">
         <v>19</v>
@@ -3314,10 +3286,10 @@
         <v>15973.129460869568</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="B73" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73" s="48"/>
       <c r="D73" s="49"/>
@@ -3335,7 +3307,7 @@
         <v>368.90045739130437</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="19"/>
       <c r="C74" s="22"/>
@@ -3348,12 +3320,12 @@
       <c r="J74" s="30"/>
       <c r="K74" s="26"/>
     </row>
-    <row r="75" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>11</v>
       </c>
       <c r="B75" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C75" s="48"/>
       <c r="D75" s="49"/>
@@ -3365,7 +3337,7 @@
       <c r="J75" s="50"/>
       <c r="K75" s="26"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
       <c r="B76" s="57" t="s">
         <v>37</v>
@@ -3393,7 +3365,7 @@
       <c r="J76" s="50"/>
       <c r="K76" s="26"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
       <c r="B77" s="57"/>
       <c r="C77" s="48">
@@ -3418,7 +3390,7 @@
       <c r="J77" s="50"/>
       <c r="K77" s="26"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
       <c r="B78" s="57"/>
       <c r="C78" s="48">
@@ -3445,7 +3417,7 @@
       <c r="J78" s="50"/>
       <c r="K78" s="26"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
       <c r="B79" s="57" t="s">
         <v>38</v>
@@ -3474,7 +3446,7 @@
       <c r="J79" s="50"/>
       <c r="K79" s="26"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="57"/>
       <c r="C80" s="48">
@@ -3500,7 +3472,7 @@
       <c r="J80" s="50"/>
       <c r="K80" s="26"/>
     </row>
-    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="57" t="s">
         <v>19</v>
@@ -3530,10 +3502,10 @@
         <v>3.3794300000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C82" s="48"/>
       <c r="D82" s="49"/>
@@ -3548,7 +3520,7 @@
       </c>
       <c r="K82" s="26"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="57"/>
       <c r="C83" s="48"/>
@@ -3561,7 +3533,7 @@
       <c r="J83" s="50"/>
       <c r="K83" s="26"/>
     </row>
-    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
         <v>12</v>
       </c>
@@ -3578,10 +3550,10 @@
       <c r="J84" s="50"/>
       <c r="K84" s="26"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C85" s="48">
         <v>2</v>
@@ -3605,7 +3577,7 @@
       <c r="J85" s="50"/>
       <c r="K85" s="26"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
       <c r="B86" s="57"/>
       <c r="C86" s="48">
@@ -3630,10 +3602,10 @@
       <c r="J86" s="50"/>
       <c r="K86" s="26"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="21"/>
       <c r="B87" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="48">
         <v>1</v>
@@ -3657,10 +3629,10 @@
       <c r="J87" s="50"/>
       <c r="K87" s="26"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
       <c r="B88" s="57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" s="48">
         <v>1</v>
@@ -3683,10 +3655,10 @@
       <c r="J88" s="50"/>
       <c r="K88" s="26"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
       <c r="B89" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C89" s="48">
         <v>1</v>
@@ -3710,10 +3682,10 @@
       <c r="J89" s="50"/>
       <c r="K89" s="26"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="21"/>
       <c r="B90" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="48">
         <v>2</v>
@@ -3743,10 +3715,10 @@
         <v>0.26563338377585882</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="21"/>
       <c r="B91" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C91" s="48">
         <v>1</v>
@@ -3769,10 +3741,10 @@
       <c r="J91" s="50"/>
       <c r="K91" s="26"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
       <c r="B92" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" s="48">
         <v>1</v>
@@ -3795,10 +3767,10 @@
       <c r="J92" s="50"/>
       <c r="K92" s="26"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="21"/>
       <c r="B93" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" s="48">
         <v>4</v>
@@ -3821,7 +3793,7 @@
       <c r="J93" s="50"/>
       <c r="K93" s="26"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="57"/>
       <c r="C94" s="48">
@@ -3845,10 +3817,10 @@
       <c r="J94" s="50"/>
       <c r="K94" s="26"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="48">
         <v>2</v>
@@ -3874,7 +3846,7 @@
       <c r="J95" s="50"/>
       <c r="K95" s="26"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
       <c r="B96" s="57"/>
       <c r="C96" s="48">
@@ -3901,7 +3873,7 @@
       <c r="J96" s="50"/>
       <c r="K96" s="26"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
       <c r="B97" s="57"/>
       <c r="C97" s="48">
@@ -3928,7 +3900,7 @@
       <c r="J97" s="50"/>
       <c r="K97" s="26"/>
     </row>
-    <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
       <c r="B98" s="57" t="s">
         <v>19</v>
@@ -3957,10 +3929,10 @@
         <v>3.3794300000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
       <c r="B99" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C99" s="48"/>
       <c r="D99" s="49"/>
@@ -3975,7 +3947,7 @@
       </c>
       <c r="K99" s="26"/>
     </row>
-    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21"/>
       <c r="B100" s="19"/>
       <c r="C100" s="22"/>
@@ -3988,7 +3960,7 @@
       <c r="J100" s="25"/>
       <c r="K100" s="26"/>
     </row>
-    <row r="101" spans="1:14" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A101" s="21">
         <v>13</v>
       </c>
@@ -4005,7 +3977,7 @@
       <c r="J101" s="50"/>
       <c r="K101" s="26"/>
     </row>
-    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="57" t="s">
         <v>41</v>
@@ -4029,7 +4001,7 @@
       <c r="J102" s="50"/>
       <c r="K102" s="26"/>
     </row>
-    <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="B103" s="57" t="s">
         <v>19</v>
@@ -4055,10 +4027,10 @@
       </c>
       <c r="K103" s="26"/>
     </row>
-    <row r="104" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
       <c r="B104" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C104" s="48"/>
       <c r="D104" s="49"/>
@@ -4073,7 +4045,7 @@
       </c>
       <c r="K104" s="26"/>
     </row>
-    <row r="105" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="21"/>
       <c r="B105" s="9"/>
       <c r="C105" s="22"/>
@@ -4086,12 +4058,12 @@
       <c r="J105" s="30"/>
       <c r="K105" s="26"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="63">
         <v>14</v>
       </c>
       <c r="B106" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C106" s="48"/>
       <c r="D106" s="49"/>
@@ -4103,7 +4075,7 @@
       <c r="J106" s="50"/>
       <c r="K106" s="26"/>
     </row>
-    <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="63"/>
       <c r="B107" s="57" t="s">
         <v>41</v>
@@ -4129,7 +4101,7 @@
       <c r="J107" s="50"/>
       <c r="K107" s="26"/>
     </row>
-    <row r="108" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="63"/>
       <c r="B108" s="57" t="s">
         <v>19</v>
@@ -4155,7 +4127,7 @@
       </c>
       <c r="K108" s="26"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
       <c r="B109" s="20"/>
       <c r="C109" s="22"/>
@@ -4172,7 +4144,7 @@
         <v>0.1259657784976419</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A110" s="67">
         <v>15</v>
       </c>
@@ -4189,7 +4161,7 @@
       <c r="J110" s="55"/>
       <c r="K110" s="13"/>
     </row>
-    <row r="111" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="67"/>
       <c r="B111" s="51" t="s">
         <v>25</v>
@@ -4216,10 +4188,10 @@
       <c r="K111" s="13"/>
       <c r="N111" s="18"/>
     </row>
-    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="67"/>
       <c r="B112" s="51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C112" s="52">
         <v>-1</v>
@@ -4243,7 +4215,7 @@
       <c r="K112" s="13"/>
       <c r="N112" s="18"/>
     </row>
-    <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="67"/>
       <c r="B113" s="51" t="s">
         <v>18</v>
@@ -4270,7 +4242,7 @@
       <c r="K113" s="13"/>
       <c r="N113" s="18"/>
     </row>
-    <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="67"/>
       <c r="B114" s="51" t="s">
         <v>27</v>
@@ -4297,7 +4269,7 @@
       <c r="K114" s="13"/>
       <c r="N114" s="18"/>
     </row>
-    <row r="115" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="67"/>
       <c r="B115" s="51" t="s">
         <v>26</v>
@@ -4324,7 +4296,7 @@
       <c r="K115" s="13"/>
       <c r="N115" s="18"/>
     </row>
-    <row r="116" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="67"/>
       <c r="B116" s="51"/>
       <c r="C116" s="52">
@@ -4349,7 +4321,7 @@
       <c r="K116" s="13"/>
       <c r="N116" s="18"/>
     </row>
-    <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="67"/>
       <c r="B117" s="51"/>
       <c r="C117" s="52">
@@ -4373,10 +4345,10 @@
       <c r="K117" s="13"/>
       <c r="N117" s="18"/>
     </row>
-    <row r="118" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="67"/>
       <c r="B118" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C118" s="52">
         <v>-1</v>
@@ -4400,7 +4372,7 @@
       <c r="K118" s="13"/>
       <c r="N118" s="18"/>
     </row>
-    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="67"/>
       <c r="B119" s="51"/>
       <c r="C119" s="52">
@@ -4425,7 +4397,7 @@
       <c r="K119" s="13"/>
       <c r="N119" s="18"/>
     </row>
-    <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="67"/>
       <c r="B120" s="51" t="s">
         <v>27</v>
@@ -4452,7 +4424,7 @@
       <c r="K120" s="13"/>
       <c r="N120" s="18"/>
     </row>
-    <row r="121" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="67"/>
       <c r="B121" s="57" t="s">
         <v>19</v>
@@ -4479,7 +4451,7 @@
       <c r="K121" s="13"/>
       <c r="N121" s="18"/>
     </row>
-    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="67"/>
       <c r="B122" s="57" t="s">
         <v>22</v>
@@ -4498,7 +4470,7 @@
       <c r="K122" s="13"/>
       <c r="N122" s="18"/>
     </row>
-    <row r="123" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="67"/>
       <c r="B123" s="57"/>
       <c r="C123" s="52"/>
@@ -4512,7 +4484,7 @@
       <c r="K123" s="13"/>
       <c r="N123" s="18"/>
     </row>
-    <row r="124" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A124" s="67">
         <v>16</v>
       </c>
@@ -4530,7 +4502,7 @@
       <c r="K124" s="13"/>
       <c r="N124" s="18"/>
     </row>
-    <row r="125" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="67"/>
       <c r="B125" s="57" t="s">
         <v>23</v>
@@ -4554,7 +4526,7 @@
       <c r="K125" s="13"/>
       <c r="N125" s="18"/>
     </row>
-    <row r="126" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="67"/>
       <c r="B126" s="57" t="s">
         <v>19</v>
@@ -4581,7 +4553,7 @@
       <c r="K126" s="13"/>
       <c r="N126" s="18"/>
     </row>
-    <row r="127" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="67"/>
       <c r="B127" s="57" t="s">
         <v>22</v>
@@ -4600,7 +4572,7 @@
       <c r="K127" s="13"/>
       <c r="N127" s="18"/>
     </row>
-    <row r="128" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="67"/>
       <c r="B128" s="57"/>
       <c r="C128" s="52"/>
@@ -4614,7 +4586,7 @@
       <c r="K128" s="13"/>
       <c r="N128" s="18"/>
     </row>
-    <row r="129" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A129" s="67">
         <v>17</v>
       </c>
@@ -4632,7 +4604,7 @@
       <c r="K129" s="13"/>
       <c r="N129" s="18"/>
     </row>
-    <row r="130" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="67"/>
       <c r="B130" s="57" t="s">
         <v>23</v>
@@ -4657,7 +4629,7 @@
       <c r="K130" s="13"/>
       <c r="N130" s="18"/>
     </row>
-    <row r="131" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="67"/>
       <c r="B131" s="57" t="s">
         <v>19</v>
@@ -4684,7 +4656,7 @@
       <c r="K131" s="13"/>
       <c r="N131" s="18"/>
     </row>
-    <row r="132" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="67"/>
       <c r="B132" s="57" t="s">
         <v>22</v>
@@ -4703,7 +4675,7 @@
       <c r="K132" s="13"/>
       <c r="N132" s="18"/>
     </row>
-    <row r="133" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="19"/>
       <c r="C133" s="11"/>
@@ -4717,7 +4689,7 @@
       <c r="K133" s="13"/>
       <c r="N133" s="18"/>
     </row>
-    <row r="134" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A134" s="67">
         <v>18</v>
       </c>
@@ -4735,7 +4707,7 @@
       <c r="K134" s="13"/>
       <c r="N134" s="18"/>
     </row>
-    <row r="135" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="67"/>
       <c r="B135" s="57" t="s">
         <v>23</v>
@@ -4760,7 +4732,7 @@
       <c r="K135" s="13"/>
       <c r="N135" s="18"/>
     </row>
-    <row r="136" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="67"/>
       <c r="B136" s="57"/>
       <c r="C136" s="52">
@@ -4782,7 +4754,7 @@
       <c r="K136" s="13"/>
       <c r="N136" s="18"/>
     </row>
-    <row r="137" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="67"/>
       <c r="B137" s="57" t="s">
         <v>19</v>
@@ -4809,7 +4781,7 @@
       <c r="K137" s="13"/>
       <c r="N137" s="18"/>
     </row>
-    <row r="138" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="67"/>
       <c r="B138" s="57" t="s">
         <v>22</v>
@@ -4828,7 +4800,7 @@
       <c r="K138" s="13"/>
       <c r="N138" s="18"/>
     </row>
-    <row r="139" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="26"/>
       <c r="C139" s="11"/>
@@ -4842,7 +4814,7 @@
       <c r="K139" s="13"/>
       <c r="N139" s="18"/>
     </row>
-    <row r="140" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A140" s="67">
         <v>19</v>
       </c>
@@ -4860,7 +4832,7 @@
       <c r="K140" s="13"/>
       <c r="N140" s="18"/>
     </row>
-    <row r="141" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="67"/>
       <c r="B141" s="57" t="s">
         <v>23</v>
@@ -4885,7 +4857,7 @@
       <c r="K141" s="13"/>
       <c r="N141" s="18"/>
     </row>
-    <row r="142" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="67"/>
       <c r="B142" s="57"/>
       <c r="C142" s="52">
@@ -4907,7 +4879,7 @@
       <c r="K142" s="13"/>
       <c r="N142" s="18"/>
     </row>
-    <row r="143" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="67"/>
       <c r="B143" s="57" t="s">
         <v>19</v>
@@ -4934,7 +4906,7 @@
       <c r="K143" s="13"/>
       <c r="N143" s="18"/>
     </row>
-    <row r="144" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="67"/>
       <c r="B144" s="57" t="s">
         <v>22</v>
@@ -4953,7 +4925,7 @@
       <c r="K144" s="13"/>
       <c r="N144" s="18"/>
     </row>
-    <row r="145" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="19"/>
       <c r="C145" s="11"/>
@@ -4967,7 +4939,7 @@
       <c r="K145" s="13"/>
       <c r="N145" s="18"/>
     </row>
-    <row r="146" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A146" s="67">
         <v>20</v>
       </c>
@@ -4985,7 +4957,7 @@
       <c r="K146" s="13"/>
       <c r="N146" s="18"/>
     </row>
-    <row r="147" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="67"/>
       <c r="B147" s="57" t="s">
         <v>23</v>
@@ -5010,7 +4982,7 @@
       <c r="K147" s="13"/>
       <c r="N147" s="18"/>
     </row>
-    <row r="148" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="67"/>
       <c r="B148" s="57"/>
       <c r="C148" s="52">
@@ -5032,7 +5004,7 @@
       <c r="K148" s="13"/>
       <c r="N148" s="18"/>
     </row>
-    <row r="149" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="67"/>
       <c r="B149" s="57" t="s">
         <v>19</v>
@@ -5059,7 +5031,7 @@
       <c r="K149" s="13"/>
       <c r="N149" s="18"/>
     </row>
-    <row r="150" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="67"/>
       <c r="B150" s="57" t="s">
         <v>22</v>
@@ -5078,7 +5050,7 @@
       <c r="K150" s="13"/>
       <c r="N150" s="18"/>
     </row>
-    <row r="151" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="19"/>
       <c r="C151" s="11"/>
@@ -5092,7 +5064,7 @@
       <c r="K151" s="13"/>
       <c r="N151" s="18"/>
     </row>
-    <row r="152" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
         <v>21</v>
       </c>
@@ -5121,7 +5093,7 @@
       </c>
       <c r="K152" s="13"/>
     </row>
-    <row r="153" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="32"/>
       <c r="C153" s="11"/>
@@ -5134,7 +5106,7 @@
       <c r="J153" s="17"/>
       <c r="K153" s="13"/>
     </row>
-    <row r="154" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
         <v>22</v>
       </c>
@@ -5163,7 +5135,7 @@
       </c>
       <c r="K154" s="13"/>
     </row>
-    <row r="155" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="32"/>
       <c r="C155" s="11"/>
@@ -5176,10 +5148,10 @@
       <c r="J155" s="17"/>
       <c r="K155" s="13"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="21"/>
       <c r="B156" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C156" s="36"/>
       <c r="D156" s="37"/>
@@ -5194,23 +5166,23 @@
       </c>
       <c r="K156" s="26"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="43"/>
       <c r="G157" s="44"/>
       <c r="H157" s="44"/>
       <c r="I157" s="44"/>
       <c r="J157" s="44"/>
     </row>
-    <row r="158" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C158" s="79">
+      <c r="C158" s="86">
         <f>J156</f>
         <v>1342574.2306613664</v>
       </c>
-      <c r="D158" s="79"/>
-      <c r="E158" s="79"/>
+      <c r="D158" s="86"/>
+      <c r="E158" s="86"/>
       <c r="F158" s="38"/>
       <c r="G158" s="39"/>
       <c r="H158" s="38"/>
@@ -5218,54 +5190,54 @@
       <c r="J158" s="41"/>
       <c r="K158" s="42"/>
     </row>
-    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="43"/>
       <c r="B159" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C159" s="84">
+        <v>54</v>
+      </c>
+      <c r="C159" s="95">
         <f>C158*0.13</f>
         <v>174534.64998597762</v>
       </c>
-      <c r="D159" s="84"/>
-      <c r="E159" s="84"/>
+      <c r="D159" s="95"/>
+      <c r="E159" s="95"/>
       <c r="G159" s="44"/>
       <c r="H159" s="44"/>
       <c r="I159" s="44"/>
       <c r="J159" s="44"/>
     </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="43"/>
       <c r="B160" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C160" s="84">
+        <v>55</v>
+      </c>
+      <c r="C160" s="95">
         <f>C158+C159</f>
         <v>1517108.880647344</v>
       </c>
-      <c r="D160" s="84"/>
-      <c r="E160" s="84"/>
+      <c r="D160" s="95"/>
+      <c r="E160" s="95"/>
       <c r="G160" s="44"/>
       <c r="H160" s="44"/>
       <c r="I160" s="44"/>
       <c r="J160" s="44"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="43"/>
       <c r="G161" s="44"/>
       <c r="H161" s="44"/>
       <c r="I161" s="44"/>
       <c r="J161" s="44"/>
     </row>
-    <row r="162" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C162" s="73">
+      <c r="C162" s="87">
         <f>J156</f>
         <v>1342574.2306613664</v>
       </c>
-      <c r="D162" s="74"/>
+      <c r="D162" s="88"/>
       <c r="E162" s="27">
         <v>100</v>
       </c>
@@ -5280,15 +5252,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="43"/>
       <c r="B163" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C163" s="77">
+      <c r="C163" s="84">
         <v>1200000</v>
       </c>
-      <c r="D163" s="78"/>
+      <c r="D163" s="85"/>
       <c r="E163" s="27"/>
       <c r="G163" s="44"/>
       <c r="H163" s="44"/>
@@ -5299,16 +5271,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="43"/>
       <c r="B164" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C164" s="77">
+      <c r="C164" s="84">
         <f>C163-C166-C167</f>
         <v>1140000</v>
       </c>
-      <c r="D164" s="78"/>
+      <c r="D164" s="85"/>
       <c r="E164" s="27">
         <f>C164/C162*100</f>
         <v>84.911506117499655</v>
@@ -5318,16 +5290,16 @@
       <c r="I164" s="44"/>
       <c r="J164" s="44"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="43"/>
       <c r="B165" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C165" s="79">
+      <c r="C165" s="86">
         <f>C162-C164</f>
         <v>202574.23066136637</v>
       </c>
-      <c r="D165" s="79"/>
+      <c r="D165" s="86"/>
       <c r="E165" s="27">
         <f>100-E164</f>
         <v>15.088493882500345</v>
@@ -5337,16 +5309,16 @@
       <c r="I165" s="44"/>
       <c r="J165" s="44"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="43"/>
       <c r="B166" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C166" s="73">
+      <c r="C166" s="87">
         <f>C163*0.03</f>
         <v>36000</v>
       </c>
-      <c r="D166" s="74"/>
+      <c r="D166" s="88"/>
       <c r="E166" s="27">
         <v>3</v>
       </c>
@@ -5355,16 +5327,16 @@
       <c r="I166" s="44"/>
       <c r="J166" s="44"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="43"/>
       <c r="B167" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C167" s="73">
+      <c r="C167" s="87">
         <f>C163*0.02</f>
         <v>24000</v>
       </c>
-      <c r="D167" s="74"/>
+      <c r="D167" s="88"/>
       <c r="E167" s="27">
         <v>2</v>
       </c>
@@ -5373,7 +5345,7 @@
       <c r="I167" s="44"/>
       <c r="J167" s="44"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I170" s="16">
         <f>1559.58/1.15*12</f>
         <v>16273.878260869566</v>
@@ -5409,231 +5381,231 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-    </row>
-    <row r="2" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="86" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-    </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="87" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89">
+      <c r="B6" s="73"/>
+      <c r="C6" s="96">
         <f>F73</f>
         <v>1342574.2306613664</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89">
+      <c r="D6" s="97"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="73"/>
+      <c r="J6" s="96">
         <f>I73</f>
         <v>1277574.2306613664</v>
       </c>
-      <c r="K6" s="90"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="92" t="s">
+      <c r="K6" s="97"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="I7" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="I7" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="str">
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="92" t="str">
         <f>'final valuation merged'!A5:F5</f>
         <v>Project:- इन्द्रायणी माई राख्ने घर व्यवस्थापन</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="I8" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="96" t="str">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="I8" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="104" t="str">
         <f>'final valuation merged'!A6:F6</f>
         <v>Location:- Shankharapur 9</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="I9" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="97" t="s">
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="I9" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="C11" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="98" t="s">
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="97" t="s">
+      <c r="K11" s="105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="106"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="97"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="100" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="100" t="s">
+      <c r="F12" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="100" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="100" t="s">
+      <c r="G12" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="100" t="s">
+      <c r="I12" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="97"/>
-      <c r="K12" s="99"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="101">
+      <c r="J12" s="106"/>
+      <c r="K12" s="105"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="77">
         <f>'final valuation merged'!A8</f>
         <v>1</v>
       </c>
-      <c r="B13" s="104" t="str">
+      <c r="B13" s="80" t="str">
         <f>'final valuation merged'!B8</f>
-        <v>22 gauge Brass plate making and fixing on roof</v>
+        <v>20 gauge Brass plate making and fixing on roof</v>
       </c>
       <c r="C13" s="27" t="str">
         <f>'final valuation merged'!H21</f>
@@ -5663,16 +5635,16 @@
         <f>G13*H13</f>
         <v>603558.17150508007</v>
       </c>
-      <c r="J13" s="102">
-        <f t="shared" ref="J13:J70" si="0">I13-F13</f>
+      <c r="J13" s="78">
+        <f t="shared" ref="J13:J69" si="0">I13-F13</f>
         <v>0</v>
       </c>
       <c r="K13" s="33"/>
       <c r="M13" s="45"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="101"/>
-      <c r="B14" s="107" t="str">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="77"/>
+      <c r="B14" s="83" t="str">
         <f>'final valuation merged'!B22</f>
         <v>-VAT for materials only</v>
       </c>
@@ -5689,16 +5661,16 @@
         <f>V!J22</f>
         <v>72086.25984282796</v>
       </c>
-      <c r="J14" s="102">
+      <c r="J14" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="33"/>
       <c r="M14" s="45"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="101"/>
-      <c r="B15" s="104"/>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -5706,16 +5678,16 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="102"/>
+      <c r="J15" s="78"/>
       <c r="K15" s="33"/>
       <c r="M15" s="45"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="101">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="77">
         <f>'final valuation merged'!A24</f>
         <v>2</v>
       </c>
-      <c r="B16" s="104" t="str">
+      <c r="B16" s="80" t="str">
         <f>'final valuation merged'!B24</f>
         <v>20/22/26 gauge 6"/8" copper/brass sheet Eaves/jhaller &amp; butta making(labour cost only)</v>
       </c>
@@ -5747,16 +5719,16 @@
         <f>G16*H16</f>
         <v>14849.394309184636</v>
       </c>
-      <c r="J16" s="102">
+      <c r="J16" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="33"/>
       <c r="M16" s="45"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="101"/>
-      <c r="B17" s="104"/>
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="77"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -5764,16 +5736,16 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="102"/>
+      <c r="J17" s="78"/>
       <c r="K17" s="33"/>
       <c r="M17" s="45"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="101">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="77">
         <f>'final valuation merged'!A29</f>
         <v>3</v>
       </c>
-      <c r="B18" s="104" t="str">
+      <c r="B18" s="80" t="str">
         <f>'final valuation merged'!B29</f>
         <v>20 gauge Brass sheet gajur making and fixing on roof with Gajur size height 24" approx. wt. 3.5kg</v>
       </c>
@@ -5805,16 +5777,16 @@
         <f>G18*H18</f>
         <v>13055.699999999999</v>
       </c>
-      <c r="J18" s="102">
+      <c r="J18" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="33"/>
       <c r="M18" s="45"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="101"/>
-      <c r="B19" s="107" t="str">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="77"/>
+      <c r="B19" s="83" t="str">
         <f>'final valuation merged'!B31</f>
         <v>-VAT for materials only</v>
       </c>
@@ -5831,16 +5803,16 @@
         <f>V!J31</f>
         <v>666.66600000000005</v>
       </c>
-      <c r="J19" s="102">
+      <c r="J19" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="33"/>
       <c r="M19" s="45"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="101"/>
-      <c r="B20" s="104"/>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="77"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
@@ -5848,16 +5820,16 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="102"/>
+      <c r="J20" s="78"/>
       <c r="K20" s="33"/>
       <c r="M20" s="45"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="101">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="77">
         <f>'final valuation merged'!A33</f>
         <v>4</v>
       </c>
-      <c r="B21" s="104" t="str">
+      <c r="B21" s="80" t="str">
         <f>'final valuation merged'!B33</f>
         <v>18 gauge Brass sheet gajur making and fixing on roof with Gajur size height 18" approx. weight 2kg</v>
       </c>
@@ -5889,16 +5861,16 @@
         <f>G21*H21</f>
         <v>14920.8</v>
       </c>
-      <c r="J21" s="102">
+      <c r="J21" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="33"/>
       <c r="M21" s="45"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="101"/>
-      <c r="B22" s="107" t="str">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="77"/>
+      <c r="B22" s="83" t="str">
         <f>'final valuation merged'!B35</f>
         <v>-VAT for materials only</v>
       </c>
@@ -5915,16 +5887,16 @@
         <f>V!J35</f>
         <v>761.904</v>
       </c>
-      <c r="J22" s="102">
+      <c r="J22" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="33"/>
       <c r="M22" s="45"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="101"/>
-      <c r="B23" s="104"/>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="77"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -5932,16 +5904,16 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="102"/>
+      <c r="J23" s="78"/>
       <c r="K23" s="33"/>
       <c r="M23" s="45"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="101">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="77">
         <f>'final valuation merged'!A37</f>
         <v>5</v>
       </c>
-      <c r="B24" s="104" t="str">
+      <c r="B24" s="80" t="str">
         <f>'final valuation merged'!B37</f>
         <v>Single layers of plastic felt laying on roofing with bitumen</v>
       </c>
@@ -5973,16 +5945,16 @@
         <f>G24*H24</f>
         <v>19793.933943491378</v>
       </c>
-      <c r="J24" s="102">
+      <c r="J24" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="33"/>
       <c r="M24" s="45"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="101"/>
-      <c r="B25" s="107" t="str">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="77"/>
+      <c r="B25" s="83" t="str">
         <f>'final valuation merged'!B40</f>
         <v>-VAT for materials only</v>
       </c>
@@ -5999,16 +5971,16 @@
         <f>V!J40</f>
         <v>602.87768611586228</v>
       </c>
-      <c r="J25" s="102">
+      <c r="J25" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="33"/>
       <c r="M25" s="45"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101"/>
-      <c r="B26" s="104"/>
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="77"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -6016,16 +5988,16 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="102"/>
+      <c r="J26" s="78"/>
       <c r="K26" s="33"/>
       <c r="M26" s="45"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="101">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="77">
         <f>'final valuation merged'!A42</f>
         <v>6</v>
       </c>
-      <c r="B27" s="104" t="str">
+      <c r="B27" s="80" t="str">
         <f>'final valuation merged'!B42</f>
         <v>Sal Timber work for beam, joist, column etc. (upto 8'-0")</v>
       </c>
@@ -6057,16 +6029,16 @@
         <f>G27*H27</f>
         <v>53029.285055097025</v>
       </c>
-      <c r="J27" s="102">
+      <c r="J27" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="33"/>
       <c r="M27" s="45"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101"/>
-      <c r="B28" s="107" t="str">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="77"/>
+      <c r="B28" s="83" t="str">
         <f>'final valuation merged'!B51</f>
         <v>-VAT 13% for materials only</v>
       </c>
@@ -6083,16 +6055,16 @@
         <f>V!J51</f>
         <v>6250.7038313801177</v>
       </c>
-      <c r="J28" s="102">
+      <c r="J28" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28" s="33"/>
       <c r="M28" s="45"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="101"/>
-      <c r="B29" s="104"/>
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="77"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -6100,16 +6072,16 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="102"/>
+      <c r="J29" s="78"/>
       <c r="K29" s="33"/>
       <c r="M29" s="45"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="101">
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="77">
         <f>'final valuation merged'!A53</f>
         <v>7</v>
       </c>
-      <c r="B30" s="104" t="str">
+      <c r="B30" s="80" t="str">
         <f>'final valuation merged'!B53</f>
         <v>1" thick salwood planking works with 3 side plaining not &lt;4" width</v>
       </c>
@@ -6141,16 +6113,16 @@
         <f>G30*H30</f>
         <v>5125.4411337898473</v>
       </c>
-      <c r="J30" s="102">
+      <c r="J30" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K30" s="33"/>
       <c r="M30" s="45"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="101"/>
-      <c r="B31" s="107" t="str">
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="77"/>
+      <c r="B31" s="83" t="str">
         <f>'final valuation merged'!B57</f>
         <v>-VAT 13% for materials only</v>
       </c>
@@ -6167,16 +6139,16 @@
         <f>V!J57</f>
         <v>655.44234321889326</v>
       </c>
-      <c r="J31" s="102">
+      <c r="J31" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K31" s="33"/>
       <c r="M31" s="45"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="101"/>
-      <c r="B32" s="104"/>
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="77"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
@@ -6184,16 +6156,16 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="102"/>
+      <c r="J32" s="78"/>
       <c r="K32" s="33"/>
       <c r="M32" s="45"/>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="101">
+    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="77">
         <f>'final valuation merged'!A59</f>
         <v>8</v>
       </c>
-      <c r="B33" s="104" t="str">
+      <c r="B33" s="80" t="str">
         <f>'final valuation merged'!B59</f>
         <v>Carved Tundal work excluding wood</v>
       </c>
@@ -6225,16 +6197,16 @@
         <f>G33*H33</f>
         <v>16320.387350528565</v>
       </c>
-      <c r="J33" s="102">
+      <c r="J33" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K33" s="33"/>
       <c r="M33" s="45"/>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="101"/>
-      <c r="B34" s="104"/>
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="77"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
@@ -6242,16 +6214,16 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="102"/>
+      <c r="J34" s="78"/>
       <c r="K34" s="33"/>
       <c r="M34" s="45"/>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="101">
+    <row r="35" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="77">
         <f>'final valuation merged'!A64</f>
         <v>9</v>
       </c>
-      <c r="B35" s="104" t="str">
+      <c r="B35" s="80" t="str">
         <f>'final valuation merged'!B64</f>
         <v>Window carving (except lattice jali) excluding wood</v>
       </c>
@@ -6283,16 +6255,16 @@
         <f>G35*H35</f>
         <v>43752.237179130439</v>
       </c>
-      <c r="J35" s="102">
+      <c r="J35" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K35" s="33"/>
       <c r="M35" s="45"/>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="101"/>
-      <c r="B36" s="104"/>
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="77"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
@@ -6300,16 +6272,16 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="102"/>
+      <c r="J36" s="78"/>
       <c r="K36" s="33"/>
       <c r="M36" s="45"/>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="101">
+    <row r="37" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="77">
         <f>'final valuation merged'!A70</f>
         <v>10</v>
       </c>
-      <c r="B37" s="104" t="str">
+      <c r="B37" s="80" t="str">
         <f>'final valuation merged'!B70</f>
         <v>Carved salwood Lattice (jali) of Carved Window highly carving including wood</v>
       </c>
@@ -6341,16 +6313,16 @@
         <f>G37*H37</f>
         <v>31946.258921739136</v>
       </c>
-      <c r="J37" s="102">
+      <c r="J37" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K37" s="33"/>
       <c r="M37" s="45"/>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="101"/>
-      <c r="B38" s="107" t="str">
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="77"/>
+      <c r="B38" s="83" t="str">
         <f>'final valuation merged'!B73</f>
         <v>-VAT 13% for materials only</v>
       </c>
@@ -6367,16 +6339,16 @@
         <f>V!J73</f>
         <v>737.80091478260874</v>
       </c>
-      <c r="J38" s="102">
+      <c r="J38" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K38" s="33"/>
       <c r="M38" s="45"/>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="101"/>
-      <c r="B39" s="104"/>
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="77"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
@@ -6384,16 +6356,16 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="102"/>
+      <c r="J39" s="78"/>
       <c r="K39" s="33"/>
       <c r="M39" s="45"/>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="101">
+    <row r="40" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="77">
         <f>'final valuation merged'!A75</f>
         <v>11</v>
       </c>
-      <c r="B40" s="104" t="str">
+      <c r="B40" s="80" t="str">
         <f>'final valuation merged'!B75</f>
         <v>Sal timber work for chaukhat frame (upto 8'-0")</v>
       </c>
@@ -6425,16 +6397,16 @@
         <f>G40*H40</f>
         <v>42959.809753112961</v>
       </c>
-      <c r="J40" s="102">
+      <c r="J40" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K40" s="33"/>
       <c r="M40" s="45"/>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="101"/>
-      <c r="B41" s="107" t="str">
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="77"/>
+      <c r="B41" s="83" t="str">
         <f>'final valuation merged'!B82</f>
         <v>-VAT 13% for materials only</v>
       </c>
@@ -6451,16 +6423,16 @@
         <f>V!J82</f>
         <v>4771.7505920097001</v>
       </c>
-      <c r="J41" s="102">
+      <c r="J41" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K41" s="33"/>
       <c r="M41" s="45"/>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="101"/>
-      <c r="B42" s="104"/>
+    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="77"/>
+      <c r="B42" s="80"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
@@ -6468,12 +6440,12 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="102"/>
+      <c r="J42" s="78"/>
       <c r="K42" s="33"/>
       <c r="M42" s="45"/>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="101">
+    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="77">
         <f>'final valuation merged'!A84</f>
         <v>12</v>
       </c>
@@ -6509,16 +6481,16 @@
         <f>G43*H43</f>
         <v>35774.385644926457</v>
       </c>
-      <c r="J43" s="102">
+      <c r="J43" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K43" s="33"/>
       <c r="M43" s="45"/>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="101"/>
-      <c r="B44" s="107" t="str">
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="77"/>
+      <c r="B44" s="83" t="str">
         <f>'final valuation merged'!B99</f>
         <v>-VAT 13% for materials only</v>
       </c>
@@ -6535,16 +6507,16 @@
         <f>V!J99</f>
         <v>3917.4057019966758</v>
       </c>
-      <c r="J44" s="102">
+      <c r="J44" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K44" s="33"/>
       <c r="M44" s="45"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="101"/>
-      <c r="B45" s="104"/>
+    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="77"/>
+      <c r="B45" s="80"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
@@ -6552,12 +6524,12 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="102"/>
+      <c r="J45" s="78"/>
       <c r="K45" s="33"/>
       <c r="M45" s="45"/>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="101">
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="77">
         <f>'final valuation merged'!A101</f>
         <v>13</v>
       </c>
@@ -6593,16 +6565,16 @@
         <f>G46*H46</f>
         <v>27872.385825000001</v>
       </c>
-      <c r="J46" s="102">
+      <c r="J46" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K46" s="33"/>
       <c r="M46" s="45"/>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="101"/>
-      <c r="B47" s="107" t="str">
+    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="77"/>
+      <c r="B47" s="83" t="str">
         <f>'final valuation merged'!B104</f>
         <v>-VAT 13% for materials only</v>
       </c>
@@ -6619,16 +6591,16 @@
         <f>V!J104</f>
         <v>2200.0370035477767</v>
       </c>
-      <c r="J47" s="102">
+      <c r="J47" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K47" s="33"/>
       <c r="M47" s="45"/>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="101"/>
-      <c r="B48" s="104"/>
+    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="77"/>
+      <c r="B48" s="80"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
@@ -6636,16 +6608,16 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="102"/>
+      <c r="J48" s="78"/>
       <c r="K48" s="33"/>
       <c r="M48" s="45"/>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="101">
+    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="77">
         <f>'final valuation merged'!A106</f>
         <v>14</v>
       </c>
-      <c r="B49" s="104" t="str">
+      <c r="B49" s="80" t="str">
         <f>'final valuation merged'!B106</f>
         <v>Carved Door works excluding wood</v>
       </c>
@@ -6677,16 +6649,16 @@
         <f>G49*H49</f>
         <v>114656.13151339401</v>
       </c>
-      <c r="J49" s="102">
+      <c r="J49" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K49" s="33"/>
       <c r="M49" s="45"/>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="101"/>
-      <c r="B50" s="104"/>
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="77"/>
+      <c r="B50" s="80"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
@@ -6694,16 +6666,16 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="102"/>
+      <c r="J50" s="78"/>
       <c r="K50" s="33"/>
       <c r="M50" s="45"/>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="101">
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="77">
         <f>'final valuation merged'!A110</f>
         <v>15</v>
       </c>
-      <c r="B51" s="104" t="str">
+      <c r="B51" s="80" t="str">
         <f>'final valuation merged'!B110</f>
         <v>Traditional Brick (Small Dachi Appa) work in (1:4)cement sand mortar</v>
       </c>
@@ -6735,16 +6707,16 @@
         <f>G51*H51</f>
         <v>117798.83719362374</v>
       </c>
-      <c r="J51" s="102">
+      <c r="J51" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K51" s="33"/>
       <c r="M51" s="45"/>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="101"/>
-      <c r="B52" s="107" t="str">
+    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="77"/>
+      <c r="B52" s="83" t="str">
         <f>'final valuation merged'!B122</f>
         <v>-VAT 13% for materials</v>
       </c>
@@ -6761,16 +6733,16 @@
         <f>V!J122</f>
         <v>9382.1946421451848</v>
       </c>
-      <c r="J52" s="102">
+      <c r="J52" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K52" s="33"/>
       <c r="M52" s="45"/>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="101"/>
-      <c r="B53" s="104"/>
+    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="77"/>
+      <c r="B53" s="80"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
@@ -6778,16 +6750,16 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="102"/>
+      <c r="J53" s="78"/>
       <c r="K53" s="33"/>
       <c r="M53" s="45"/>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="101">
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="77">
         <f>'final valuation merged'!A124</f>
         <v>16</v>
       </c>
-      <c r="B54" s="104" t="str">
+      <c r="B54" s="80" t="str">
         <f>'final valuation merged'!B124</f>
         <v>Traditional Kassimo Brick work in (1:1:2) lime,surkhi, sand mortar</v>
       </c>
@@ -6819,16 +6791,16 @@
         <f>G54*H54</f>
         <v>3821.6109192584449</v>
       </c>
-      <c r="J54" s="102">
+      <c r="J54" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K54" s="33"/>
       <c r="M54" s="45"/>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="101"/>
-      <c r="B55" s="107" t="str">
+    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="77"/>
+      <c r="B55" s="83" t="str">
         <f>'final valuation merged'!B127</f>
         <v>-VAT 13% for materials</v>
       </c>
@@ -6845,16 +6817,16 @@
         <f>V!J127</f>
         <v>314.21468229807988</v>
       </c>
-      <c r="J55" s="102">
+      <c r="J55" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K55" s="33"/>
       <c r="M55" s="45"/>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="101"/>
-      <c r="B56" s="104"/>
+    <row r="56" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="77"/>
+      <c r="B56" s="80"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
@@ -6862,16 +6834,16 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="102"/>
+      <c r="J56" s="78"/>
       <c r="K56" s="33"/>
       <c r="M56" s="45"/>
     </row>
-    <row r="57" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="101">
+    <row r="57" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="77">
         <f>'final valuation merged'!A129</f>
         <v>17</v>
       </c>
-      <c r="B57" s="104" t="str">
+      <c r="B57" s="80" t="str">
         <f>'final valuation merged'!B129</f>
         <v>Traditional Nago Brick work in (1:1:2) lime,surkhi, sand mortar</v>
       </c>
@@ -6903,16 +6875,16 @@
         <f>G57*H57</f>
         <v>2241.9199369227304</v>
       </c>
-      <c r="J57" s="102">
+      <c r="J57" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K57" s="33"/>
       <c r="M57" s="45"/>
     </row>
-    <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="101"/>
-      <c r="B58" s="107" t="str">
+    <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="77"/>
+      <c r="B58" s="83" t="str">
         <f>'final valuation merged'!B132</f>
         <v>-VAT 13% for materials</v>
       </c>
@@ -6929,16 +6901,16 @@
         <f>V!J132</f>
         <v>200.15222319719598</v>
       </c>
-      <c r="J58" s="102">
+      <c r="J58" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K58" s="33"/>
       <c r="M58" s="45"/>
     </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="101"/>
-      <c r="B59" s="104"/>
+    <row r="59" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="77"/>
+      <c r="B59" s="80"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
@@ -6946,16 +6918,16 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="102"/>
+      <c r="J59" s="78"/>
       <c r="K59" s="33"/>
       <c r="M59" s="45"/>
     </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="101">
+    <row r="60" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="77">
         <f>'final valuation merged'!A134</f>
         <v>18</v>
       </c>
-      <c r="B60" s="104" t="str">
+      <c r="B60" s="80" t="str">
         <f>'final valuation merged'!B134</f>
         <v>Traditional Jhallr Brick work in (1:1:2) lime,surkhi, sand mortar</v>
       </c>
@@ -6987,16 +6959,16 @@
         <f>G60*H60</f>
         <v>4523.8990922703842</v>
       </c>
-      <c r="J60" s="102">
+      <c r="J60" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K60" s="33"/>
       <c r="M60" s="45"/>
     </row>
-    <row r="61" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="101"/>
-      <c r="B61" s="107" t="str">
+    <row r="61" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="77"/>
+      <c r="B61" s="83" t="str">
         <f>'final valuation merged'!B138</f>
         <v>-VAT 13% for materials</v>
       </c>
@@ -7013,16 +6985,16 @@
         <f>V!J138</f>
         <v>308.16824401706799</v>
       </c>
-      <c r="J61" s="102">
+      <c r="J61" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K61" s="33"/>
       <c r="M61" s="45"/>
     </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="101"/>
-      <c r="B62" s="104"/>
+    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="77"/>
+      <c r="B62" s="80"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
@@ -7030,16 +7002,16 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="102"/>
+      <c r="J62" s="78"/>
       <c r="K62" s="33"/>
       <c r="M62" s="45"/>
     </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="101">
+    <row r="63" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="77">
         <f>'final valuation merged'!A140</f>
         <v>19</v>
       </c>
-      <c r="B63" s="104" t="str">
+      <c r="B63" s="80" t="str">
         <f>'final valuation merged'!B140</f>
         <v>Traditional Palefo Brick work in (1:1:2) lime,surkhi, sand mortar</v>
       </c>
@@ -7071,16 +7043,16 @@
         <f>G63*H63</f>
         <v>3856.2845738971414</v>
       </c>
-      <c r="J63" s="102">
+      <c r="J63" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K63" s="33"/>
       <c r="M63" s="45"/>
     </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="101"/>
-      <c r="B64" s="107" t="str">
+    <row r="64" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="77"/>
+      <c r="B64" s="83" t="str">
         <f>'final valuation merged'!B144</f>
         <v>-VAT 13% for materials</v>
       </c>
@@ -7097,16 +7069,16 @@
         <f>V!J144</f>
         <v>351.3876890033527</v>
       </c>
-      <c r="J64" s="102">
+      <c r="J64" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K64" s="33"/>
       <c r="M64" s="45"/>
     </row>
-    <row r="65" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="101"/>
-      <c r="B65" s="107"/>
+    <row r="65" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="77"/>
+      <c r="B65" s="83"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
@@ -7114,16 +7086,16 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="102"/>
+      <c r="J65" s="78"/>
       <c r="K65" s="33"/>
       <c r="M65" s="45"/>
     </row>
-    <row r="66" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="101">
+    <row r="66" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="77">
         <f>'final valuation merged'!A146</f>
         <v>20</v>
       </c>
-      <c r="B66" s="104" t="str">
+      <c r="B66" s="80" t="str">
         <f>'final valuation merged'!B146</f>
         <v>3 Traditional Fya Brick work in (1:1:2) lime,surkhi, sand mortar</v>
       </c>
@@ -7155,16 +7127,16 @@
         <f>G66*H66</f>
         <v>3681.6997521964408</v>
       </c>
-      <c r="J66" s="102">
+      <c r="J66" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K66" s="33"/>
       <c r="M66" s="45"/>
     </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="101"/>
-      <c r="B67" s="107" t="str">
+    <row r="67" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="77"/>
+      <c r="B67" s="83" t="str">
         <f>'final valuation merged'!B150</f>
         <v>-VAT 13% for materials</v>
       </c>
@@ -7181,16 +7153,16 @@
         <f>V!J150</f>
         <v>328.69166218226155</v>
       </c>
-      <c r="J67" s="102">
+      <c r="J67" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K67" s="33"/>
       <c r="M67" s="45"/>
     </row>
-    <row r="68" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="101"/>
-      <c r="B68" s="107"/>
+    <row r="68" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="77"/>
+      <c r="B68" s="83"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
@@ -7198,16 +7170,16 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="102"/>
+      <c r="J68" s="78"/>
       <c r="K68" s="33"/>
       <c r="M68" s="45"/>
     </row>
-    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="101">
+    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="77">
         <f>'final valuation merged'!A152</f>
         <v>21</v>
       </c>
-      <c r="B69" s="104" t="str">
+      <c r="B69" s="80" t="str">
         <f>'final valuation merged'!B152</f>
         <v>Provisional sum for unforseen works</v>
       </c>
@@ -7239,16 +7211,16 @@
         <f>G69*H69</f>
         <v>0</v>
       </c>
-      <c r="J69" s="102">
+      <c r="J69" s="78">
         <f t="shared" si="0"/>
         <v>-65000</v>
       </c>
       <c r="K69" s="33"/>
       <c r="M69" s="45"/>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="101"/>
-      <c r="B70" s="104"/>
+    <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="77"/>
+      <c r="B70" s="80"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
@@ -7256,16 +7228,16 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="102"/>
+      <c r="J70" s="78"/>
       <c r="K70" s="33"/>
       <c r="M70" s="45"/>
     </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="101">
+    <row r="71" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="77">
         <f>'final valuation merged'!A154</f>
         <v>22</v>
       </c>
-      <c r="B71" s="104" t="str">
+      <c r="B71" s="80" t="str">
         <f>'final valuation merged'!B154</f>
         <v>Information board (सुचना पाटि)</v>
       </c>
@@ -7297,7 +7269,7 @@
         <f>G71*H71</f>
         <v>500</v>
       </c>
-      <c r="J71" s="102">
+      <c r="J71" s="78">
         <f>I71-F71</f>
         <v>0</v>
       </c>
@@ -7307,9 +7279,9 @@
         <v>625</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="103"/>
-      <c r="B72" s="103"/>
+    <row r="72" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="79"/>
+      <c r="B72" s="79"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
@@ -7317,15 +7289,15 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="102"/>
+      <c r="J72" s="78"/>
       <c r="K72" s="33"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="26"/>
-      <c r="B73" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73" s="105"/>
+      <c r="B73" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="81"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17">
@@ -7338,13 +7310,13 @@
         <f>SUM(I13:I71)</f>
         <v>1277574.2306613664</v>
       </c>
-      <c r="J73" s="106">
+      <c r="J73" s="82">
         <f>I73-F73</f>
         <v>-65000</v>
       </c>
       <c r="K73" s="26"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K78">
         <v>1070</v>
       </c>
@@ -7372,13 +7344,13 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7396,121 +7368,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O170"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-    </row>
-    <row r="4" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="83" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="H5" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -7542,15 +7514,15 @@
         <v>16</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>1</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="62"/>
@@ -7562,10 +7534,10 @@
       <c r="J8" s="56"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="52">
         <v>1</v>
@@ -7587,10 +7559,10 @@
       <c r="J9" s="56"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="52">
         <v>1</v>
@@ -7612,10 +7584,10 @@
       <c r="J10" s="56"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="52">
         <v>4</v>
@@ -7638,7 +7610,7 @@
       <c r="J11" s="56"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="51"/>
       <c r="C12" s="52">
@@ -7661,7 +7633,7 @@
       <c r="J12" s="56"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="51"/>
       <c r="C13" s="52">
@@ -7684,7 +7656,7 @@
       <c r="J13" s="56"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="51"/>
       <c r="C14" s="52">
@@ -7707,10 +7679,10 @@
       <c r="J14" s="56"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="52">
         <v>2</v>
@@ -7732,7 +7704,7 @@
       <c r="J15" s="56"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="51"/>
       <c r="C16" s="52">
@@ -7755,7 +7727,7 @@
       <c r="J16" s="56"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="51"/>
       <c r="C17" s="52">
@@ -7779,10 +7751,10 @@
       <c r="J17" s="56"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="52">
         <v>2</v>
@@ -7803,10 +7775,10 @@
       <c r="J18" s="56"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="52">
         <v>1</v>
@@ -7829,7 +7801,7 @@
       <c r="J19" s="56"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="51"/>
       <c r="C20" s="52">
@@ -7852,7 +7824,7 @@
       <c r="J20" s="56"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="57" t="s">
         <v>19</v>
@@ -7878,10 +7850,10 @@
       </c>
       <c r="K21" s="26"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="49"/>
@@ -7896,7 +7868,7 @@
       </c>
       <c r="K22" s="26"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="57"/>
       <c r="C23" s="48"/>
@@ -7909,12 +7881,12 @@
       <c r="J23" s="60"/>
       <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>2</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="49"/>
@@ -7926,7 +7898,7 @@
       <c r="J24" s="50"/>
       <c r="K24" s="26"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="51" t="s">
         <v>42</v>
@@ -7950,7 +7922,7 @@
       <c r="J25" s="56"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="51"/>
       <c r="C26" s="52">
@@ -7972,7 +7944,7 @@
       <c r="J26" s="56"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="57" t="s">
         <v>19</v>
@@ -7998,7 +7970,7 @@
       </c>
       <c r="K27" s="26"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="19"/>
       <c r="C28" s="22"/>
@@ -8011,12 +7983,12 @@
       <c r="J28" s="30"/>
       <c r="K28" s="26"/>
     </row>
-    <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>3</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="48">
         <v>1</v>
@@ -8035,7 +8007,7 @@
       <c r="J29" s="50"/>
       <c r="K29" s="26"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="57" t="s">
         <v>19</v>
@@ -8061,10 +8033,10 @@
       </c>
       <c r="K30" s="26"/>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="48"/>
       <c r="D31" s="49"/>
@@ -8079,7 +8051,7 @@
       </c>
       <c r="K31" s="26"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="57"/>
       <c r="C32" s="48"/>
@@ -8092,12 +8064,12 @@
       <c r="J32" s="50"/>
       <c r="K32" s="26"/>
     </row>
-    <row r="33" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>4</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="48">
         <v>2</v>
@@ -8116,7 +8088,7 @@
       <c r="J33" s="50"/>
       <c r="K33" s="26"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="57" t="s">
         <v>19</v>
@@ -8142,10 +8114,10 @@
       </c>
       <c r="K34" s="26"/>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="48"/>
       <c r="D35" s="49"/>
@@ -8160,7 +8132,7 @@
       </c>
       <c r="K35" s="26"/>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="19"/>
       <c r="C36" s="22"/>
@@ -8173,7 +8145,7 @@
       <c r="J36" s="30"/>
       <c r="K36" s="26"/>
     </row>
-    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>5</v>
       </c>
@@ -8190,7 +8162,7 @@
       <c r="J37" s="50"/>
       <c r="K37" s="26"/>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="51" t="s">
         <v>42</v>
@@ -8216,7 +8188,7 @@
       <c r="J38" s="56"/>
       <c r="K38" s="13"/>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="57" t="s">
         <v>19</v>
@@ -8242,10 +8214,10 @@
       </c>
       <c r="K39" s="26"/>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="48"/>
       <c r="D40" s="49"/>
@@ -8260,7 +8232,7 @@
       </c>
       <c r="K40" s="26"/>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="19"/>
       <c r="C41" s="22"/>
@@ -8273,12 +8245,12 @@
       <c r="J41" s="25"/>
       <c r="K41" s="26"/>
     </row>
-    <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>6</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="48"/>
       <c r="D42" s="49"/>
@@ -8290,7 +8262,7 @@
       <c r="J42" s="50"/>
       <c r="K42" s="26"/>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="51" t="str">
         <f>B11</f>
@@ -8318,7 +8290,7 @@
       <c r="J43" s="56"/>
       <c r="K43" s="13"/>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="51"/>
       <c r="C44" s="52">
@@ -8343,7 +8315,7 @@
       <c r="J44" s="56"/>
       <c r="K44" s="13"/>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="51"/>
       <c r="C45" s="52">
@@ -8370,7 +8342,7 @@
       <c r="J45" s="56"/>
       <c r="K45" s="13"/>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="51"/>
       <c r="C46" s="52">
@@ -8397,7 +8369,7 @@
       <c r="J46" s="56"/>
       <c r="K46" s="13"/>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="51" t="str">
         <f>B18</f>
@@ -8427,10 +8399,10 @@
       <c r="J47" s="56"/>
       <c r="K47" s="13"/>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="52">
         <v>2</v>
@@ -8456,7 +8428,7 @@
       <c r="J48" s="56"/>
       <c r="K48" s="13"/>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="51"/>
       <c r="C49" s="52">
@@ -8483,7 +8455,7 @@
       <c r="J49" s="56"/>
       <c r="K49" s="13"/>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="57" t="s">
         <v>19</v>
@@ -8509,10 +8481,10 @@
       </c>
       <c r="K50" s="26"/>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="B51" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="48"/>
       <c r="D51" s="49"/>
@@ -8527,7 +8499,7 @@
       </c>
       <c r="K51" s="26"/>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="19"/>
       <c r="C52" s="22"/>
@@ -8540,12 +8512,12 @@
       <c r="J52" s="25"/>
       <c r="K52" s="26"/>
     </row>
-    <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>7</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="48"/>
       <c r="D53" s="49"/>
@@ -8557,7 +8529,7 @@
       <c r="J53" s="60"/>
       <c r="K53" s="26"/>
     </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="57"/>
       <c r="C54" s="48">
@@ -8581,7 +8553,7 @@
       <c r="J54" s="60"/>
       <c r="K54" s="26"/>
     </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="57"/>
       <c r="C55" s="48">
@@ -8605,7 +8577,7 @@
       <c r="J55" s="60"/>
       <c r="K55" s="26"/>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="57" t="s">
         <v>19</v>
@@ -8631,10 +8603,10 @@
       </c>
       <c r="K56" s="26"/>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" s="48"/>
       <c r="D57" s="49"/>
@@ -8649,7 +8621,7 @@
       </c>
       <c r="K57" s="26"/>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="19"/>
       <c r="C58" s="22"/>
@@ -8662,12 +8634,12 @@
       <c r="J58" s="25"/>
       <c r="K58" s="26"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>8</v>
       </c>
       <c r="B59" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="48"/>
       <c r="D59" s="49"/>
@@ -8679,7 +8651,7 @@
       <c r="J59" s="50"/>
       <c r="K59" s="26"/>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="65" t="str">
         <f>B48</f>
@@ -8707,7 +8679,7 @@
       <c r="J60" s="50"/>
       <c r="K60" s="26"/>
     </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="57"/>
       <c r="C61" s="48">
@@ -8732,7 +8704,7 @@
       <c r="J61" s="50"/>
       <c r="K61" s="26"/>
     </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="57" t="s">
         <v>19</v>
@@ -8758,7 +8730,7 @@
       </c>
       <c r="K62" s="26"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="20"/>
       <c r="C63" s="22"/>
@@ -8771,12 +8743,12 @@
       <c r="J63" s="30"/>
       <c r="K63" s="26"/>
     </row>
-    <row r="64" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>9</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="48"/>
       <c r="D64" s="49"/>
@@ -8788,10 +8760,10 @@
       <c r="J64" s="50"/>
       <c r="K64" s="26"/>
     </row>
-    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="48">
         <v>1</v>
@@ -8812,10 +8784,10 @@
       <c r="J65" s="50"/>
       <c r="K65" s="26"/>
     </row>
-    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
       <c r="B66" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="48">
         <v>-2</v>
@@ -8836,10 +8808,10 @@
       <c r="J66" s="50"/>
       <c r="K66" s="26"/>
     </row>
-    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" s="48">
         <v>1</v>
@@ -8860,7 +8832,7 @@
       <c r="J67" s="50"/>
       <c r="K67" s="26"/>
     </row>
-    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="57" t="s">
         <v>19</v>
@@ -8889,7 +8861,7 @@
         <v>73689.555541760725</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
       <c r="B69" s="20"/>
       <c r="C69" s="22"/>
@@ -8902,12 +8874,12 @@
       <c r="J69" s="30"/>
       <c r="K69" s="26"/>
     </row>
-    <row r="70" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>10</v>
       </c>
       <c r="B70" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C70" s="48"/>
       <c r="D70" s="49"/>
@@ -8919,7 +8891,7 @@
       <c r="J70" s="50"/>
       <c r="K70" s="26"/>
     </row>
-    <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="B71" s="57" t="s">
         <v>39</v>
@@ -8949,7 +8921,7 @@
         <v>0.83000000000000007</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="B72" s="57" t="s">
         <v>19</v>
@@ -8978,10 +8950,10 @@
         <v>15973.129460869568</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="B73" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73" s="48"/>
       <c r="D73" s="49"/>
@@ -8999,7 +8971,7 @@
         <v>368.90045739130437</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="19"/>
       <c r="C74" s="22"/>
@@ -9012,12 +8984,12 @@
       <c r="J74" s="30"/>
       <c r="K74" s="26"/>
     </row>
-    <row r="75" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>11</v>
       </c>
       <c r="B75" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C75" s="48"/>
       <c r="D75" s="49"/>
@@ -9029,7 +9001,7 @@
       <c r="J75" s="50"/>
       <c r="K75" s="26"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
       <c r="B76" s="57" t="s">
         <v>37</v>
@@ -9057,7 +9029,7 @@
       <c r="J76" s="50"/>
       <c r="K76" s="26"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
       <c r="B77" s="57"/>
       <c r="C77" s="48">
@@ -9082,7 +9054,7 @@
       <c r="J77" s="50"/>
       <c r="K77" s="26"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
       <c r="B78" s="57"/>
       <c r="C78" s="48">
@@ -9109,7 +9081,7 @@
       <c r="J78" s="50"/>
       <c r="K78" s="26"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
       <c r="B79" s="57" t="s">
         <v>38</v>
@@ -9138,7 +9110,7 @@
       <c r="J79" s="50"/>
       <c r="K79" s="26"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="57"/>
       <c r="C80" s="48">
@@ -9164,7 +9136,7 @@
       <c r="J80" s="50"/>
       <c r="K80" s="26"/>
     </row>
-    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="57" t="s">
         <v>19</v>
@@ -9194,10 +9166,10 @@
         <v>3.3794300000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C82" s="48"/>
       <c r="D82" s="49"/>
@@ -9212,7 +9184,7 @@
       </c>
       <c r="K82" s="26"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="57"/>
       <c r="C83" s="48"/>
@@ -9225,7 +9197,7 @@
       <c r="J83" s="50"/>
       <c r="K83" s="26"/>
     </row>
-    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
         <v>12</v>
       </c>
@@ -9242,10 +9214,10 @@
       <c r="J84" s="50"/>
       <c r="K84" s="26"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C85" s="48">
         <v>2</v>
@@ -9269,7 +9241,7 @@
       <c r="J85" s="50"/>
       <c r="K85" s="26"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
       <c r="B86" s="57"/>
       <c r="C86" s="48">
@@ -9294,10 +9266,10 @@
       <c r="J86" s="50"/>
       <c r="K86" s="26"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="21"/>
       <c r="B87" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="48">
         <v>1</v>
@@ -9321,10 +9293,10 @@
       <c r="J87" s="50"/>
       <c r="K87" s="26"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
       <c r="B88" s="57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" s="48">
         <v>1</v>
@@ -9347,10 +9319,10 @@
       <c r="J88" s="50"/>
       <c r="K88" s="26"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
       <c r="B89" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C89" s="48">
         <v>1</v>
@@ -9374,10 +9346,10 @@
       <c r="J89" s="50"/>
       <c r="K89" s="26"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="21"/>
       <c r="B90" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="48">
         <v>2</v>
@@ -9407,10 +9379,10 @@
         <v>0.26563338377585882</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="21"/>
       <c r="B91" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C91" s="48">
         <v>1</v>
@@ -9433,10 +9405,10 @@
       <c r="J91" s="50"/>
       <c r="K91" s="26"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
       <c r="B92" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" s="48">
         <v>1</v>
@@ -9459,10 +9431,10 @@
       <c r="J92" s="50"/>
       <c r="K92" s="26"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="21"/>
       <c r="B93" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" s="48">
         <v>4</v>
@@ -9485,7 +9457,7 @@
       <c r="J93" s="50"/>
       <c r="K93" s="26"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="57"/>
       <c r="C94" s="48">
@@ -9509,10 +9481,10 @@
       <c r="J94" s="50"/>
       <c r="K94" s="26"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="48">
         <v>2</v>
@@ -9538,7 +9510,7 @@
       <c r="J95" s="50"/>
       <c r="K95" s="26"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
       <c r="B96" s="57"/>
       <c r="C96" s="48">
@@ -9565,7 +9537,7 @@
       <c r="J96" s="50"/>
       <c r="K96" s="26"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
       <c r="B97" s="57"/>
       <c r="C97" s="48">
@@ -9592,7 +9564,7 @@
       <c r="J97" s="50"/>
       <c r="K97" s="26"/>
     </row>
-    <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
       <c r="B98" s="57" t="s">
         <v>19</v>
@@ -9621,10 +9593,10 @@
         <v>3.3794300000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
       <c r="B99" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C99" s="48"/>
       <c r="D99" s="49"/>
@@ -9639,7 +9611,7 @@
       </c>
       <c r="K99" s="26"/>
     </row>
-    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21"/>
       <c r="B100" s="19"/>
       <c r="C100" s="22"/>
@@ -9652,7 +9624,7 @@
       <c r="J100" s="25"/>
       <c r="K100" s="26"/>
     </row>
-    <row r="101" spans="1:14" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A101" s="21">
         <v>13</v>
       </c>
@@ -9669,7 +9641,7 @@
       <c r="J101" s="50"/>
       <c r="K101" s="26"/>
     </row>
-    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="57" t="s">
         <v>41</v>
@@ -9693,7 +9665,7 @@
       <c r="J102" s="50"/>
       <c r="K102" s="26"/>
     </row>
-    <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="B103" s="57" t="s">
         <v>19</v>
@@ -9719,10 +9691,10 @@
       </c>
       <c r="K103" s="26"/>
     </row>
-    <row r="104" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
       <c r="B104" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C104" s="48"/>
       <c r="D104" s="49"/>
@@ -9737,7 +9709,7 @@
       </c>
       <c r="K104" s="26"/>
     </row>
-    <row r="105" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="21"/>
       <c r="B105" s="9"/>
       <c r="C105" s="22"/>
@@ -9750,12 +9722,12 @@
       <c r="J105" s="30"/>
       <c r="K105" s="26"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="63">
         <v>14</v>
       </c>
       <c r="B106" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C106" s="48"/>
       <c r="D106" s="49"/>
@@ -9767,7 +9739,7 @@
       <c r="J106" s="50"/>
       <c r="K106" s="26"/>
     </row>
-    <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="63"/>
       <c r="B107" s="57" t="s">
         <v>41</v>
@@ -9793,7 +9765,7 @@
       <c r="J107" s="50"/>
       <c r="K107" s="26"/>
     </row>
-    <row r="108" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="63"/>
       <c r="B108" s="57" t="s">
         <v>19</v>
@@ -9819,7 +9791,7 @@
       </c>
       <c r="K108" s="26"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
       <c r="B109" s="20"/>
       <c r="C109" s="22"/>
@@ -9836,7 +9808,7 @@
         <v>0.1259657784976419</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A110" s="67">
         <v>15</v>
       </c>
@@ -9853,7 +9825,7 @@
       <c r="J110" s="55"/>
       <c r="K110" s="13"/>
     </row>
-    <row r="111" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="67"/>
       <c r="B111" s="51" t="s">
         <v>25</v>
@@ -9880,10 +9852,10 @@
       <c r="K111" s="13"/>
       <c r="N111" s="18"/>
     </row>
-    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="67"/>
       <c r="B112" s="51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C112" s="52">
         <v>-1</v>
@@ -9907,7 +9879,7 @@
       <c r="K112" s="13"/>
       <c r="N112" s="18"/>
     </row>
-    <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="67"/>
       <c r="B113" s="51" t="s">
         <v>18</v>
@@ -9934,7 +9906,7 @@
       <c r="K113" s="13"/>
       <c r="N113" s="18"/>
     </row>
-    <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="67"/>
       <c r="B114" s="51" t="s">
         <v>27</v>
@@ -9961,7 +9933,7 @@
       <c r="K114" s="13"/>
       <c r="N114" s="18"/>
     </row>
-    <row r="115" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="67"/>
       <c r="B115" s="51" t="s">
         <v>26</v>
@@ -9988,7 +9960,7 @@
       <c r="K115" s="13"/>
       <c r="N115" s="18"/>
     </row>
-    <row r="116" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="67"/>
       <c r="B116" s="51"/>
       <c r="C116" s="52">
@@ -10013,7 +9985,7 @@
       <c r="K116" s="13"/>
       <c r="N116" s="18"/>
     </row>
-    <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="67"/>
       <c r="B117" s="51"/>
       <c r="C117" s="52">
@@ -10037,10 +10009,10 @@
       <c r="K117" s="13"/>
       <c r="N117" s="18"/>
     </row>
-    <row r="118" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="67"/>
       <c r="B118" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C118" s="52">
         <v>-1</v>
@@ -10064,7 +10036,7 @@
       <c r="K118" s="13"/>
       <c r="N118" s="18"/>
     </row>
-    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="67"/>
       <c r="B119" s="51"/>
       <c r="C119" s="52">
@@ -10089,7 +10061,7 @@
       <c r="K119" s="13"/>
       <c r="N119" s="18"/>
     </row>
-    <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="67"/>
       <c r="B120" s="51" t="s">
         <v>27</v>
@@ -10116,7 +10088,7 @@
       <c r="K120" s="13"/>
       <c r="N120" s="18"/>
     </row>
-    <row r="121" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="67"/>
       <c r="B121" s="57" t="s">
         <v>19</v>
@@ -10143,7 +10115,7 @@
       <c r="K121" s="13"/>
       <c r="N121" s="18"/>
     </row>
-    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="67"/>
       <c r="B122" s="57" t="s">
         <v>22</v>
@@ -10162,7 +10134,7 @@
       <c r="K122" s="13"/>
       <c r="N122" s="18"/>
     </row>
-    <row r="123" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="67"/>
       <c r="B123" s="57"/>
       <c r="C123" s="52"/>
@@ -10176,25 +10148,24 @@
       <c r="K123" s="13"/>
       <c r="N123" s="18"/>
     </row>
-    <row r="124" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="67">
+    <row r="124" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="63">
         <v>16</v>
       </c>
-      <c r="B124" s="68" t="s">
+      <c r="B124" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C124" s="52"/>
-      <c r="D124" s="62"/>
-      <c r="E124" s="53"/>
-      <c r="F124" s="53"/>
-      <c r="G124" s="55"/>
-      <c r="H124" s="54"/>
-      <c r="I124" s="55"/>
-      <c r="J124" s="56"/>
-      <c r="K124" s="13"/>
-      <c r="N124" s="18"/>
-    </row>
-    <row r="125" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="48"/>
+      <c r="D124" s="49"/>
+      <c r="E124" s="49"/>
+      <c r="F124" s="49"/>
+      <c r="G124" s="49"/>
+      <c r="H124" s="49"/>
+      <c r="I124" s="49"/>
+      <c r="J124" s="50"/>
+      <c r="K124" s="26"/>
+    </row>
+    <row r="125" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="67"/>
       <c r="B125" s="57" t="s">
         <v>23</v>
@@ -10218,7 +10189,7 @@
       <c r="K125" s="13"/>
       <c r="N125" s="18"/>
     </row>
-    <row r="126" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="67"/>
       <c r="B126" s="57" t="s">
         <v>19</v>
@@ -10245,7 +10216,7 @@
       <c r="K126" s="13"/>
       <c r="N126" s="18"/>
     </row>
-    <row r="127" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="67"/>
       <c r="B127" s="57" t="s">
         <v>22</v>
@@ -10264,7 +10235,7 @@
       <c r="K127" s="13"/>
       <c r="N127" s="18"/>
     </row>
-    <row r="128" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="67"/>
       <c r="B128" s="57"/>
       <c r="C128" s="52"/>
@@ -10278,25 +10249,24 @@
       <c r="K128" s="13"/>
       <c r="N128" s="18"/>
     </row>
-    <row r="129" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A129" s="67">
+    <row r="129" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="63">
         <v>17</v>
       </c>
-      <c r="B129" s="68" t="s">
+      <c r="B129" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C129" s="52"/>
-      <c r="D129" s="62"/>
-      <c r="E129" s="53"/>
-      <c r="F129" s="53"/>
-      <c r="G129" s="55"/>
-      <c r="H129" s="54"/>
-      <c r="I129" s="55"/>
-      <c r="J129" s="56"/>
-      <c r="K129" s="13"/>
-      <c r="N129" s="18"/>
-    </row>
-    <row r="130" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="48"/>
+      <c r="D129" s="49"/>
+      <c r="E129" s="49"/>
+      <c r="F129" s="49"/>
+      <c r="G129" s="49"/>
+      <c r="H129" s="49"/>
+      <c r="I129" s="49"/>
+      <c r="J129" s="50"/>
+      <c r="K129" s="26"/>
+    </row>
+    <row r="130" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="67"/>
       <c r="B130" s="57" t="s">
         <v>23</v>
@@ -10321,7 +10291,7 @@
       <c r="K130" s="13"/>
       <c r="N130" s="18"/>
     </row>
-    <row r="131" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="67"/>
       <c r="B131" s="57" t="s">
         <v>19</v>
@@ -10348,7 +10318,7 @@
       <c r="K131" s="13"/>
       <c r="N131" s="18"/>
     </row>
-    <row r="132" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="67"/>
       <c r="B132" s="57" t="s">
         <v>22</v>
@@ -10367,7 +10337,7 @@
       <c r="K132" s="13"/>
       <c r="N132" s="18"/>
     </row>
-    <row r="133" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="19"/>
       <c r="C133" s="11"/>
@@ -10381,25 +10351,24 @@
       <c r="K133" s="13"/>
       <c r="N133" s="18"/>
     </row>
-    <row r="134" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A134" s="67">
+    <row r="134" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="63">
         <v>18</v>
       </c>
-      <c r="B134" s="68" t="s">
+      <c r="B134" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="52"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="53"/>
-      <c r="F134" s="53"/>
-      <c r="G134" s="55"/>
-      <c r="H134" s="54"/>
-      <c r="I134" s="55"/>
-      <c r="J134" s="56"/>
-      <c r="K134" s="13"/>
-      <c r="N134" s="18"/>
-    </row>
-    <row r="135" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="48"/>
+      <c r="D134" s="49"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="49"/>
+      <c r="G134" s="49"/>
+      <c r="H134" s="49"/>
+      <c r="I134" s="49"/>
+      <c r="J134" s="50"/>
+      <c r="K134" s="26"/>
+    </row>
+    <row r="135" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="67"/>
       <c r="B135" s="57" t="s">
         <v>23</v>
@@ -10424,7 +10393,7 @@
       <c r="K135" s="13"/>
       <c r="N135" s="18"/>
     </row>
-    <row r="136" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="67"/>
       <c r="B136" s="57"/>
       <c r="C136" s="52">
@@ -10446,7 +10415,7 @@
       <c r="K136" s="13"/>
       <c r="N136" s="18"/>
     </row>
-    <row r="137" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="67"/>
       <c r="B137" s="57" t="s">
         <v>19</v>
@@ -10473,7 +10442,7 @@
       <c r="K137" s="13"/>
       <c r="N137" s="18"/>
     </row>
-    <row r="138" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="67"/>
       <c r="B138" s="57" t="s">
         <v>22</v>
@@ -10492,7 +10461,7 @@
       <c r="K138" s="13"/>
       <c r="N138" s="18"/>
     </row>
-    <row r="139" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="26"/>
       <c r="C139" s="11"/>
@@ -10506,7 +10475,7 @@
       <c r="K139" s="13"/>
       <c r="N139" s="18"/>
     </row>
-    <row r="140" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A140" s="67">
         <v>19</v>
       </c>
@@ -10524,7 +10493,7 @@
       <c r="K140" s="13"/>
       <c r="N140" s="18"/>
     </row>
-    <row r="141" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="67"/>
       <c r="B141" s="57" t="s">
         <v>23</v>
@@ -10549,7 +10518,7 @@
       <c r="K141" s="13"/>
       <c r="N141" s="18"/>
     </row>
-    <row r="142" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="67"/>
       <c r="B142" s="57"/>
       <c r="C142" s="52">
@@ -10571,7 +10540,7 @@
       <c r="K142" s="13"/>
       <c r="N142" s="18"/>
     </row>
-    <row r="143" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="67"/>
       <c r="B143" s="57" t="s">
         <v>19</v>
@@ -10598,7 +10567,7 @@
       <c r="K143" s="13"/>
       <c r="N143" s="18"/>
     </row>
-    <row r="144" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="67"/>
       <c r="B144" s="57" t="s">
         <v>22</v>
@@ -10617,7 +10586,7 @@
       <c r="K144" s="13"/>
       <c r="N144" s="18"/>
     </row>
-    <row r="145" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="19"/>
       <c r="C145" s="11"/>
@@ -10631,25 +10600,24 @@
       <c r="K145" s="13"/>
       <c r="N145" s="18"/>
     </row>
-    <row r="146" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A146" s="67">
+    <row r="146" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="63">
         <v>20</v>
       </c>
-      <c r="B146" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="C146" s="52"/>
-      <c r="D146" s="62"/>
-      <c r="E146" s="53"/>
-      <c r="F146" s="53"/>
-      <c r="G146" s="55"/>
-      <c r="H146" s="54"/>
-      <c r="I146" s="55"/>
-      <c r="J146" s="56"/>
-      <c r="K146" s="13"/>
-      <c r="N146" s="18"/>
-    </row>
-    <row r="147" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C146" s="48"/>
+      <c r="D146" s="49"/>
+      <c r="E146" s="49"/>
+      <c r="F146" s="49"/>
+      <c r="G146" s="49"/>
+      <c r="H146" s="49"/>
+      <c r="I146" s="49"/>
+      <c r="J146" s="50"/>
+      <c r="K146" s="26"/>
+    </row>
+    <row r="147" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="67"/>
       <c r="B147" s="57" t="s">
         <v>23</v>
@@ -10674,7 +10642,7 @@
       <c r="K147" s="13"/>
       <c r="N147" s="18"/>
     </row>
-    <row r="148" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="67"/>
       <c r="B148" s="57"/>
       <c r="C148" s="52">
@@ -10696,7 +10664,7 @@
       <c r="K148" s="13"/>
       <c r="N148" s="18"/>
     </row>
-    <row r="149" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="67"/>
       <c r="B149" s="57" t="s">
         <v>19</v>
@@ -10723,7 +10691,7 @@
       <c r="K149" s="13"/>
       <c r="N149" s="18"/>
     </row>
-    <row r="150" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="67"/>
       <c r="B150" s="57" t="s">
         <v>22</v>
@@ -10742,7 +10710,7 @@
       <c r="K150" s="13"/>
       <c r="N150" s="18"/>
     </row>
-    <row r="151" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="19"/>
       <c r="C151" s="11"/>
@@ -10756,7 +10724,7 @@
       <c r="K151" s="13"/>
       <c r="N151" s="18"/>
     </row>
-    <row r="152" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
         <v>21</v>
       </c>
@@ -10785,7 +10753,7 @@
       </c>
       <c r="K152" s="13"/>
     </row>
-    <row r="153" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="32"/>
       <c r="C153" s="11"/>
@@ -10798,7 +10766,7 @@
       <c r="J153" s="17"/>
       <c r="K153" s="13"/>
     </row>
-    <row r="154" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
         <v>22</v>
       </c>
@@ -10827,7 +10795,7 @@
       </c>
       <c r="K154" s="13"/>
     </row>
-    <row r="155" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="32"/>
       <c r="C155" s="11"/>
@@ -10840,10 +10808,10 @@
       <c r="J155" s="17"/>
       <c r="K155" s="13"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="21"/>
       <c r="B156" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C156" s="36"/>
       <c r="D156" s="37"/>
@@ -10858,23 +10826,23 @@
       </c>
       <c r="K156" s="26"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="43"/>
       <c r="G157" s="44"/>
       <c r="H157" s="44"/>
       <c r="I157" s="44"/>
       <c r="J157" s="44"/>
     </row>
-    <row r="158" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C158" s="79">
+      <c r="C158" s="86">
         <f>J156</f>
         <v>1277574.2306613664</v>
       </c>
-      <c r="D158" s="79"/>
-      <c r="E158" s="79"/>
+      <c r="D158" s="86"/>
+      <c r="E158" s="86"/>
       <c r="F158" s="38"/>
       <c r="G158" s="39"/>
       <c r="H158" s="38"/>
@@ -10882,54 +10850,54 @@
       <c r="J158" s="41"/>
       <c r="K158" s="42"/>
     </row>
-    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="43"/>
       <c r="B159" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C159" s="84">
+        <v>54</v>
+      </c>
+      <c r="C159" s="95">
         <f>C158*0.13</f>
         <v>166084.64998597762</v>
       </c>
-      <c r="D159" s="84"/>
-      <c r="E159" s="84"/>
+      <c r="D159" s="95"/>
+      <c r="E159" s="95"/>
       <c r="G159" s="44"/>
       <c r="H159" s="44"/>
       <c r="I159" s="44"/>
       <c r="J159" s="44"/>
     </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="43"/>
       <c r="B160" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C160" s="84">
+        <v>55</v>
+      </c>
+      <c r="C160" s="95">
         <f>C158+C159</f>
         <v>1443658.880647344</v>
       </c>
-      <c r="D160" s="84"/>
-      <c r="E160" s="84"/>
+      <c r="D160" s="95"/>
+      <c r="E160" s="95"/>
       <c r="G160" s="44"/>
       <c r="H160" s="44"/>
       <c r="I160" s="44"/>
       <c r="J160" s="44"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="43"/>
       <c r="G161" s="44"/>
       <c r="H161" s="44"/>
       <c r="I161" s="44"/>
       <c r="J161" s="44"/>
     </row>
-    <row r="162" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C162" s="73">
+      <c r="C162" s="87">
         <f>J156</f>
         <v>1277574.2306613664</v>
       </c>
-      <c r="D162" s="74"/>
+      <c r="D162" s="88"/>
       <c r="E162" s="27">
         <v>100</v>
       </c>
@@ -10944,15 +10912,15 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="43"/>
       <c r="B163" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C163" s="77">
+      <c r="C163" s="84">
         <v>1200000</v>
       </c>
-      <c r="D163" s="78"/>
+      <c r="D163" s="85"/>
       <c r="E163" s="27"/>
       <c r="G163" s="44"/>
       <c r="H163" s="44"/>
@@ -10963,16 +10931,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="43"/>
       <c r="B164" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C164" s="77">
+      <c r="C164" s="84">
         <f>C163-C166-C167</f>
         <v>1140000</v>
       </c>
-      <c r="D164" s="78"/>
+      <c r="D164" s="85"/>
       <c r="E164" s="27">
         <f>C164/C162*100</f>
         <v>89.231605697764593</v>
@@ -10982,16 +10950,16 @@
       <c r="I164" s="44"/>
       <c r="J164" s="44"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="43"/>
       <c r="B165" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C165" s="79">
+      <c r="C165" s="86">
         <f>C162-C164</f>
         <v>137574.23066136637</v>
       </c>
-      <c r="D165" s="79"/>
+      <c r="D165" s="86"/>
       <c r="E165" s="27">
         <f>100-E164</f>
         <v>10.768394302235407</v>
@@ -11001,16 +10969,16 @@
       <c r="I165" s="44"/>
       <c r="J165" s="44"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="43"/>
       <c r="B166" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C166" s="73">
+      <c r="C166" s="87">
         <f>C163*0.03</f>
         <v>36000</v>
       </c>
-      <c r="D166" s="74"/>
+      <c r="D166" s="88"/>
       <c r="E166" s="27">
         <v>3</v>
       </c>
@@ -11019,16 +10987,16 @@
       <c r="I166" s="44"/>
       <c r="J166" s="44"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="43"/>
       <c r="B167" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C167" s="73">
+      <c r="C167" s="87">
         <f>C163*0.02</f>
         <v>24000</v>
       </c>
-      <c r="D167" s="74"/>
+      <c r="D167" s="88"/>
       <c r="E167" s="27">
         <v>2</v>
       </c>
@@ -11037,7 +11005,7 @@
       <c r="I167" s="44"/>
       <c r="J167" s="44"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I170" s="16">
         <f>1559.58/1.15*12</f>
         <v>16273.878260869566</v>
@@ -11050,11 +11018,6 @@
     <mergeCell ref="C165:D165"/>
     <mergeCell ref="C166:D166"/>
     <mergeCell ref="C167:D167"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C158:E158"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="C160:E160"/>
     <mergeCell ref="C162:D162"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -11062,6 +11025,11 @@
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C160:E160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
